--- a/WebApplication1/Forms/kosullu_validasyon.xlsx
+++ b/WebApplication1/Forms/kosullu_validasyon.xlsx
@@ -24,7 +24,7 @@
     <t>{NN;Yes;A1}</t>
   </si>
   <si>
-    <t>{END}</t>
+    <t>{E}</t>
   </si>
 </sst>
 </file>
@@ -348,10 +348,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>

--- a/WebApplication1/Forms/kosullu_validasyon.xlsx
+++ b/WebApplication1/Forms/kosullu_validasyon.xlsx
@@ -60,9 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -348,7 +352,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -358,9 +362,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
@@ -368,6 +373,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>1</formula1>
